--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D045388-0BDA-4105-9A74-3BC66ACAAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89134F6-4D7F-4B8B-A989-BB60EBB942D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3195" windowWidth="14205" windowHeight="8325" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -413,780 +413,780 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B382C7-5C3D-42C7-9EF9-D08D8191F388}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="W1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89134F6-4D7F-4B8B-A989-BB60EBB942D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65977075-7C54-40AE-A343-2154CF2A45F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
   </bookViews>
@@ -411,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B382C7-5C3D-42C7-9EF9-D08D8191F388}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -495,8 +495,41 @@
       <c r="Y1" s="1">
         <v>1</v>
       </c>
+      <c r="Z1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -572,8 +605,41 @@
       <c r="Y2" s="1">
         <v>1</v>
       </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -649,8 +715,41 @@
       <c r="Y3" s="1">
         <v>1</v>
       </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -726,8 +825,41 @@
       <c r="Y4" s="1">
         <v>1</v>
       </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -803,8 +935,41 @@
       <c r="Y5" s="1">
         <v>1</v>
       </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -880,8 +1045,41 @@
       <c r="Y6" s="1">
         <v>1</v>
       </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -957,236 +1155,368 @@
       <c r="Y7" s="1">
         <v>1</v>
       </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="P8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="R8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="T8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="U8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="V8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="W8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="X8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Y8" s="1">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>43</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="R9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="S9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="T9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="U9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="V9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="W9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="X9" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="1">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="S10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="T10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="U10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="V10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="W10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="X10" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="Y10" s="1">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65977075-7C54-40AE-A343-2154CF2A45F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCD77B-0C3F-4E31-BAE9-58D9D2560BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B382C7-5C3D-42C7-9EF9-D08D8191F388}">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:AJ10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE7" sqref="A1:AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,320 +1203,870 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>44</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>44</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>44</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
         <v>43</v>
       </c>
-      <c r="F10" s="1">
+      <c r="AH13" s="1">
         <v>43</v>
       </c>
-      <c r="G10" s="1">
+      <c r="AI13" s="1">
         <v>43</v>
       </c>
-      <c r="H10" s="1">
+      <c r="AJ13" s="1">
         <v>43</v>
       </c>
-      <c r="I10" s="1">
-        <v>43</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43</v>
-      </c>
-      <c r="K10" s="1">
-        <v>43</v>
-      </c>
-      <c r="L10" s="1">
-        <v>43</v>
-      </c>
-      <c r="M10" s="1">
-        <v>43</v>
-      </c>
-      <c r="N10" s="1">
-        <v>43</v>
-      </c>
-      <c r="O10" s="1">
-        <v>43</v>
-      </c>
-      <c r="P10" s="1">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>43</v>
-      </c>
-      <c r="R10" s="1">
-        <v>43</v>
-      </c>
-      <c r="S10" s="1">
-        <v>43</v>
-      </c>
-      <c r="T10" s="1">
-        <v>43</v>
-      </c>
-      <c r="U10" s="1">
-        <v>43</v>
-      </c>
-      <c r="V10" s="1">
-        <v>43</v>
-      </c>
-      <c r="W10" s="1">
-        <v>43</v>
-      </c>
-      <c r="X10" s="1">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>43</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>43</v>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1">
+        <v>42</v>
+      </c>
+      <c r="N14" s="1">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1">
+        <v>42</v>
+      </c>
+      <c r="P14" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>42</v>
+      </c>
+      <c r="R14" s="1">
+        <v>42</v>
+      </c>
+      <c r="S14" s="1">
+        <v>42</v>
+      </c>
+      <c r="T14" s="1">
+        <v>42</v>
+      </c>
+      <c r="U14" s="1">
+        <v>42</v>
+      </c>
+      <c r="V14" s="1">
+        <v>42</v>
+      </c>
+      <c r="W14" s="1">
+        <v>42</v>
+      </c>
+      <c r="X14" s="1">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1">
+        <v>42</v>
+      </c>
+      <c r="P15" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1">
+        <v>42</v>
+      </c>
+      <c r="S15" s="1">
+        <v>42</v>
+      </c>
+      <c r="T15" s="1">
+        <v>42</v>
+      </c>
+      <c r="U15" s="1">
+        <v>42</v>
+      </c>
+      <c r="V15" s="1">
+        <v>42</v>
+      </c>
+      <c r="W15" s="1">
+        <v>42</v>
+      </c>
+      <c r="X15" s="1">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCD77B-0C3F-4E31-BAE9-58D9D2560BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19FEE9-2BF9-484A-9A59-BCC67360A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B382C7-5C3D-42C7-9EF9-D08D8191F388}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE7" sqref="A1:AJ15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="A1:AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE13" s="1">
         <v>1</v>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\Geomeotry_Dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19FEE9-2BF9-484A-9A59-BCC67360A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B92F44B-4002-46C7-8DDD-88A3C74D0724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +78,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,16 +409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B382C7-5C3D-42C7-9EF9-D08D8191F388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="A1:AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W7" sqref="A1:AJ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -529,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -639,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,22 +700,22 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="1">
         <v>1</v>
@@ -749,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -811,22 +810,22 @@
         <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="W13" s="1">
         <v>1</v>
@@ -1813,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Z13" s="1">
         <v>1</v>
@@ -1849,224 +1848,224 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="R14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="U14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="V14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="W14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="X14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AI14" s="1">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="N15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="P15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="S15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="U15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="W15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="X15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AB15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AC15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AI15" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\Geomeotry_Dash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC71F49D-3E0C-4174-945A-1E2F992512B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +68,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,16 +399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W7" sqref="A1:AJ15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -527,8 +517,116 @@
       <c r="AJ1" s="1">
         <v>1</v>
       </c>
+      <c r="AK1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -637,8 +735,116 @@
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -747,8 +953,116 @@
       <c r="AJ3" s="1">
         <v>1</v>
       </c>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>31</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>32</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>33</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>31</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>32</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -857,8 +1171,116 @@
       <c r="AJ4" s="1">
         <v>1</v>
       </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>46</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -967,8 +1389,116 @@
       <c r="AJ5" s="1">
         <v>1</v>
       </c>
+      <c r="AK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1077,8 +1607,116 @@
       <c r="AJ6" s="1">
         <v>1</v>
       </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1187,8 +1825,116 @@
       <c r="AJ7" s="1">
         <v>1</v>
       </c>
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1297,8 +2043,116 @@
       <c r="AJ8" s="1">
         <v>1</v>
       </c>
+      <c r="AK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1">
+    <row r="9" spans="1:72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1407,8 +2261,116 @@
       <c r="AJ9" s="1">
         <v>1</v>
       </c>
+      <c r="AK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1517,8 +2479,116 @@
       <c r="AJ10" s="1">
         <v>1</v>
       </c>
+      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1627,8 +2697,116 @@
       <c r="AJ11" s="1">
         <v>1</v>
       </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1678,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="1">
         <v>1</v>
@@ -1737,8 +2915,116 @@
       <c r="AJ12" s="1">
         <v>1</v>
       </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1761,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1779,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1788,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
@@ -1803,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
         <v>1</v>
@@ -1812,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="1">
         <v>1</v>
@@ -1827,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="1">
         <v>1</v>
@@ -1836,236 +3122,560 @@
         <v>1</v>
       </c>
       <c r="AG13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="1">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="V14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="X14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AG14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI14" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>12</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AD15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AF15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AG15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AH15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI15" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>12</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A77862-1983-4639-96AC-5E5F0D6B72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CB11F-9297-43E0-8D7A-97EB3A710512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,7 +556,7 @@
   <dimension ref="A1:SA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J10" sqref="A1:SA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,8 +583,8 @@
       <c r="G1" s="7">
         <v>1</v>
       </c>
-      <c r="H1" s="1">
-        <v>100</v>
+      <c r="H1" s="7">
+        <v>1</v>
       </c>
       <c r="I1" s="7">
         <v>1</v>
@@ -2074,8 +2070,8 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>100</v>
+      <c r="H2" s="7">
+        <v>1</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -3561,8 +3557,8 @@
       <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>100</v>
+      <c r="H3" s="7">
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -5048,8 +5044,8 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>100</v>
+      <c r="H4" s="7">
+        <v>1</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -6535,8 +6531,8 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>100</v>
+      <c r="H5" s="7">
+        <v>1</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -8022,8 +8018,8 @@
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>100</v>
+      <c r="H6" s="7">
+        <v>1</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -9509,8 +9505,8 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>100</v>
+      <c r="H7" s="7">
+        <v>1</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -10996,8 +10992,8 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
-        <v>100</v>
+      <c r="H8" s="7">
+        <v>1</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -12483,8 +12479,8 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
-        <v>100</v>
+      <c r="H9" s="7">
+        <v>1</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -13970,8 +13966,8 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
-        <v>100</v>
+      <c r="H10" s="7">
+        <v>1</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -15457,8 +15453,8 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
-        <v>100</v>
+      <c r="H11" s="7">
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -16944,8 +16940,8 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
-        <v>100</v>
+      <c r="H12" s="7">
+        <v>1</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -18431,8 +18427,8 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
-        <v>100</v>
+      <c r="H13" s="7">
+        <v>1</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -19918,8 +19914,8 @@
       <c r="G14" s="2">
         <v>16</v>
       </c>
-      <c r="H14" s="1">
-        <v>100</v>
+      <c r="H14" s="2">
+        <v>17</v>
       </c>
       <c r="I14" s="2">
         <v>16</v>
@@ -21405,8 +21401,8 @@
       <c r="G15" s="2">
         <v>14</v>
       </c>
-      <c r="H15" s="1">
-        <v>100</v>
+      <c r="H15" s="2">
+        <v>15</v>
       </c>
       <c r="I15" s="2">
         <v>14</v>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CB11F-9297-43E0-8D7A-97EB3A710512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC12724-36EA-4658-A569-1A40FB82D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:SA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:SA15"/>
+    <sheetView tabSelected="1" topLeftCell="ED1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EQ7" sqref="A1:SA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,13 +1409,13 @@
         <v>18</v>
       </c>
       <c r="JW1" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="JX1" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="JY1" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="JZ1" s="1">
         <v>31</v>
@@ -1424,13 +1424,13 @@
         <v>31</v>
       </c>
       <c r="KB1" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="KC1" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="KD1" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="KE1" s="1">
         <v>31</v>
@@ -1445,25 +1445,25 @@
         <v>31</v>
       </c>
       <c r="KI1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KJ1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KK1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KL1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KM1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KN1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KO1" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="KP1" s="1">
         <v>31</v>
@@ -1514,13 +1514,13 @@
         <v>31</v>
       </c>
       <c r="LF1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LG1" s="2">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="LH1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LI1" s="2">
         <v>31</v>
@@ -1529,13 +1529,13 @@
         <v>31</v>
       </c>
       <c r="LK1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LL1" s="2">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="LM1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LN1" s="2">
         <v>31</v>
@@ -1547,13 +1547,13 @@
         <v>31</v>
       </c>
       <c r="LQ1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LR1" s="2">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="LS1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LT1" s="2">
         <v>31</v>
@@ -1565,10 +1565,10 @@
         <v>31</v>
       </c>
       <c r="LW1" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="LX1" s="2">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="LY1" s="2">
         <v>31</v>
@@ -1652,34 +1652,34 @@
         <v>31</v>
       </c>
       <c r="MZ1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NA1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NB1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NC1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="ND1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NE1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NF1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NG1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NH1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NI1" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NJ1" s="14">
         <v>34</v>
@@ -1715,31 +1715,31 @@
         <v>34</v>
       </c>
       <c r="NU1" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="NV1" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="NW1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NX1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NY1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="NZ1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="OA1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="OB1" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="OC1" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OD1" s="14">
         <v>34</v>
@@ -1781,46 +1781,46 @@
         <v>34</v>
       </c>
       <c r="OQ1" s="14">
+        <v>38</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>71</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>71</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>71</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>71</v>
+      </c>
+      <c r="PC1" s="14">
+        <v>40</v>
+      </c>
+      <c r="PD1" s="14">
         <v>35</v>
-      </c>
-      <c r="OR1" s="1">
-        <v>1</v>
-      </c>
-      <c r="OS1" s="1">
-        <v>1</v>
-      </c>
-      <c r="OT1" s="1">
-        <v>1</v>
-      </c>
-      <c r="OU1" s="1">
-        <v>1</v>
-      </c>
-      <c r="OV1" s="1">
-        <v>1</v>
-      </c>
-      <c r="OW1" s="1">
-        <v>31</v>
-      </c>
-      <c r="OX1" s="1">
-        <v>31</v>
-      </c>
-      <c r="OY1" s="1">
-        <v>31</v>
-      </c>
-      <c r="OZ1" s="1">
-        <v>31</v>
-      </c>
-      <c r="PA1" s="1">
-        <v>31</v>
-      </c>
-      <c r="PB1" s="1">
-        <v>31</v>
-      </c>
-      <c r="PC1" s="1">
-        <v>31</v>
-      </c>
-      <c r="PD1" s="14">
-        <v>38</v>
       </c>
       <c r="PE1" s="14">
         <v>34</v>
@@ -1829,22 +1829,22 @@
         <v>34</v>
       </c>
       <c r="PG1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PH1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PI1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PJ1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PK1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PL1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PM1" s="1">
         <v>97</v>
@@ -1856,40 +1856,40 @@
         <v>97</v>
       </c>
       <c r="PP1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PQ1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PR1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PS1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PT1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PU1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PV1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PW1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PX1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="PY1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="PZ1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QA1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QB1" s="1">
         <v>31</v>
@@ -1910,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="QH1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QI1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QJ1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QK1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QL1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QM1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QN1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QO1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QP1" s="16">
         <v>31</v>
@@ -1943,94 +1943,94 @@
         <v>33</v>
       </c>
       <c r="QS1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QT1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QU1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QV1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QW1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QX1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="QY1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="QZ1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RA1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RB1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RC1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RD1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RE1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RF1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RG1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RH1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RI1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RJ1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RK1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RL1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RM1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RN1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RO1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RP1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RQ1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RR1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RS1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RT1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RU1" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="RV1" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="RW1" s="1">
         <v>31</v>
@@ -2042,10 +2042,10 @@
         <v>31</v>
       </c>
       <c r="RZ1" s="1">
+        <v>100</v>
+      </c>
+      <c r="SA1" s="1">
         <v>31</v>
-      </c>
-      <c r="SA1" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:495" x14ac:dyDescent="0.25">
@@ -2740,13 +2740,13 @@
         <v>18</v>
       </c>
       <c r="HW2" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="HX2" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="HY2" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="HZ2" s="11">
         <v>18</v>
@@ -3166,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="NI2" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="NJ2" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NK2" s="14">
         <v>34</v>
@@ -3193,43 +3193,43 @@
         <v>34</v>
       </c>
       <c r="NR2" s="14">
+        <v>38</v>
+      </c>
+      <c r="NS2" s="14">
+        <v>39</v>
+      </c>
+      <c r="NT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="NZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OC2" s="14">
+        <v>40</v>
+      </c>
+      <c r="OD2" s="14">
         <v>35</v>
-      </c>
-      <c r="NS2" s="14">
-        <v>35</v>
-      </c>
-      <c r="NT2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NU2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NV2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NW2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NX2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NY2" s="1">
-        <v>1</v>
-      </c>
-      <c r="NZ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OC2" s="14">
-        <v>39</v>
-      </c>
-      <c r="OD2" s="14">
-        <v>38</v>
       </c>
       <c r="OE2" s="14">
         <v>34</v>
@@ -3265,52 +3265,52 @@
         <v>34</v>
       </c>
       <c r="OP2" s="14">
+        <v>38</v>
+      </c>
+      <c r="OQ2" s="14">
+        <v>39</v>
+      </c>
+      <c r="OR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="OZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="PA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="PB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="PC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="PD2" s="14">
+        <v>40</v>
+      </c>
+      <c r="PE2" s="14">
         <v>35</v>
-      </c>
-      <c r="OQ2" s="14">
-        <v>40</v>
-      </c>
-      <c r="OR2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OS2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OT2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OU2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OV2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OW2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OX2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OY2" s="1">
-        <v>1</v>
-      </c>
-      <c r="OZ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="PA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="PB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="PC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="PD2" s="14">
-        <v>39</v>
-      </c>
-      <c r="PE2" s="14">
-        <v>38</v>
       </c>
       <c r="PF2" s="14">
         <v>34</v>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="QC2" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QD2" s="16">
         <v>31</v>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="RE2" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="RF2" s="16">
         <v>31</v>
@@ -3529,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="RZ2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA2" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:495" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="DQ3" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="DR3" s="1">
         <v>1</v>
@@ -4656,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="NJ3" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="NK3" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NL3" s="14">
         <v>34</v>
@@ -4677,49 +4677,49 @@
         <v>34</v>
       </c>
       <c r="NQ3" s="14">
+        <v>38</v>
+      </c>
+      <c r="NR3" s="14">
+        <v>39</v>
+      </c>
+      <c r="NS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="NZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OD3" s="14">
+        <v>40</v>
+      </c>
+      <c r="OE3" s="14">
         <v>35</v>
-      </c>
-      <c r="NR3" s="14">
-        <v>35</v>
-      </c>
-      <c r="NS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="NZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OD3" s="14">
-        <v>39</v>
-      </c>
-      <c r="OE3" s="14">
-        <v>38</v>
       </c>
       <c r="OF3" s="14">
         <v>34</v>
@@ -4749,59 +4749,59 @@
         <v>34</v>
       </c>
       <c r="OO3" s="14">
+        <v>38</v>
+      </c>
+      <c r="OP3" s="14">
+        <v>39</v>
+      </c>
+      <c r="OQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="OZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="PE3" s="14">
+        <v>40</v>
+      </c>
+      <c r="PF3" s="14">
         <v>35</v>
       </c>
-      <c r="OP3" s="14">
-        <v>40</v>
-      </c>
-      <c r="OQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="OZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="PA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="PB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="PC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="PD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="PE3" s="14">
-        <v>39</v>
-      </c>
-      <c r="PF3" s="14">
-        <v>38</v>
-      </c>
       <c r="PG3" s="1">
         <v>1</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="PL3" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="PM3" s="16">
         <v>31</v>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="QC3" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QD3" s="16">
         <v>32</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="RE3" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="RF3" s="16">
         <v>32</v>
@@ -5016,10 +5016,10 @@
         <v>1</v>
       </c>
       <c r="RZ3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA3" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:495" x14ac:dyDescent="0.25">
@@ -6146,10 +6146,10 @@
         <v>1</v>
       </c>
       <c r="NK4" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="NL4" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NM4" s="14">
         <v>34</v>
@@ -6161,55 +6161,55 @@
         <v>34</v>
       </c>
       <c r="NP4" s="14">
+        <v>38</v>
+      </c>
+      <c r="NQ4" s="14">
+        <v>39</v>
+      </c>
+      <c r="NR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="NZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OE4" s="14">
+        <v>40</v>
+      </c>
+      <c r="OF4" s="14">
         <v>35</v>
-      </c>
-      <c r="NQ4" s="14">
-        <v>40</v>
-      </c>
-      <c r="NR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NW4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NX4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NY4" s="1">
-        <v>1</v>
-      </c>
-      <c r="NZ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OE4" s="14">
-        <v>39</v>
-      </c>
-      <c r="OF4" s="14">
-        <v>38</v>
       </c>
       <c r="OG4" s="14">
         <v>34</v>
@@ -6233,62 +6233,62 @@
         <v>34</v>
       </c>
       <c r="ON4" s="14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="OO4" s="14">
+        <v>39</v>
+      </c>
+      <c r="OP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="OZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="PF4" s="14">
         <v>40</v>
       </c>
-      <c r="OP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OW4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OX4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OY4" s="1">
-        <v>1</v>
-      </c>
-      <c r="OZ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="PF4" s="14">
-        <v>39</v>
-      </c>
       <c r="PG4" s="1">
         <v>1</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="PL4" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="PM4" s="16">
         <v>32</v>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="QC4" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QD4" s="16">
         <v>33</v>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="RE4" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="RF4" s="16">
         <v>33</v>
@@ -6503,10 +6503,10 @@
         <v>1</v>
       </c>
       <c r="RZ4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA4" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:495" x14ac:dyDescent="0.25">
@@ -7636,70 +7636,70 @@
         <v>1</v>
       </c>
       <c r="NL5" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="NM5" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NN5" s="14">
         <v>34</v>
       </c>
       <c r="NO5" s="14">
+        <v>38</v>
+      </c>
+      <c r="NP5" s="14">
+        <v>39</v>
+      </c>
+      <c r="NQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="NZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="OF5" s="14">
+        <v>40</v>
+      </c>
+      <c r="OG5" s="14">
         <v>35</v>
-      </c>
-      <c r="NP5" s="14">
-        <v>40</v>
-      </c>
-      <c r="NQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="NZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="OF5" s="14">
-        <v>39</v>
-      </c>
-      <c r="OG5" s="14">
-        <v>38</v>
       </c>
       <c r="OH5" s="14">
         <v>34</v>
@@ -7717,10 +7717,10 @@
         <v>34</v>
       </c>
       <c r="OM5" s="14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="ON5" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="OO5" s="1">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="PL5" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="PM5" s="16">
         <v>33</v>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="RE5" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="RF5" s="16">
         <v>31</v>
@@ -7990,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="RZ5" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA5" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:495" x14ac:dyDescent="0.25">
@@ -9126,70 +9126,70 @@
         <v>1</v>
       </c>
       <c r="NM6" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="NN6" s="14">
         <v>37</v>
       </c>
       <c r="NO6" s="14">
+        <v>39</v>
+      </c>
+      <c r="NP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NX6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NY6" s="1">
+        <v>1</v>
+      </c>
+      <c r="NZ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="OG6" s="14">
         <v>40</v>
       </c>
-      <c r="NP6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NQ6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NR6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NS6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NT6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NU6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NV6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NW6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NX6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NY6" s="1">
-        <v>1</v>
-      </c>
-      <c r="NZ6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OE6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="OG6" s="14">
-        <v>39</v>
-      </c>
       <c r="OH6" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OI6" s="14">
         <v>34</v>
@@ -9201,10 +9201,10 @@
         <v>34</v>
       </c>
       <c r="OL6" s="14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="OM6" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="ON6" s="1">
         <v>1</v>
@@ -9477,10 +9477,10 @@
         <v>1</v>
       </c>
       <c r="RZ6" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA6" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:495" x14ac:dyDescent="0.25">
@@ -10676,19 +10676,19 @@
         <v>1</v>
       </c>
       <c r="OH7" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="OI7" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OJ7" s="14">
         <v>34</v>
       </c>
       <c r="OK7" s="14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="OL7" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="OM7" s="1">
         <v>1</v>
@@ -10964,10 +10964,10 @@
         <v>1</v>
       </c>
       <c r="RZ7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA7" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:495" x14ac:dyDescent="0.25">
@@ -12166,13 +12166,13 @@
         <v>1</v>
       </c>
       <c r="OI8" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="OJ8" s="14">
         <v>37</v>
       </c>
       <c r="OK8" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="OL8" s="1">
         <v>1</v>
@@ -12282,8 +12282,8 @@
       <c r="PU8" s="1">
         <v>1</v>
       </c>
-      <c r="PV8" s="1">
-        <v>1</v>
+      <c r="PV8" s="17">
+        <v>48</v>
       </c>
       <c r="PW8" s="17">
         <v>48</v>
@@ -12291,8 +12291,8 @@
       <c r="PX8" s="17">
         <v>48</v>
       </c>
-      <c r="PY8" s="17">
-        <v>48</v>
+      <c r="PY8" s="1">
+        <v>1</v>
       </c>
       <c r="PZ8" s="1">
         <v>1</v>
@@ -12451,10 +12451,10 @@
         <v>1</v>
       </c>
       <c r="RZ8" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA8" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13766,23 +13766,23 @@
       <c r="PT9" s="1">
         <v>1</v>
       </c>
-      <c r="PU9" s="1">
-        <v>1</v>
-      </c>
-      <c r="PV9" s="17">
-        <v>61</v>
+      <c r="PU9" s="17">
+        <v>63</v>
+      </c>
+      <c r="PV9" s="16">
+        <v>31</v>
       </c>
       <c r="PW9" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="PX9" s="16">
-        <v>32</v>
-      </c>
-      <c r="PY9" s="16">
         <v>33</v>
       </c>
-      <c r="PZ9" s="17">
+      <c r="PY9" s="17">
         <v>60</v>
+      </c>
+      <c r="PZ9" s="1">
+        <v>1</v>
       </c>
       <c r="QA9" s="1">
         <v>1</v>
@@ -13938,10 +13938,10 @@
         <v>1</v>
       </c>
       <c r="RZ9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA9" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:495" x14ac:dyDescent="0.25">
@@ -13981,49 +13981,49 @@
       <c r="L10" s="7">
         <v>1</v>
       </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1</v>
-      </c>
-      <c r="V10" s="7">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7">
-        <v>1</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
         <v>1</v>
       </c>
       <c r="AB10" s="7">
@@ -15211,11 +15211,11 @@
       <c r="PF10" s="14">
         <v>38</v>
       </c>
-      <c r="PG10" s="1">
-        <v>1</v>
-      </c>
-      <c r="PH10" s="1">
-        <v>1</v>
+      <c r="PG10" s="14">
+        <v>37</v>
+      </c>
+      <c r="PH10" s="14">
+        <v>35</v>
       </c>
       <c r="PI10" s="1">
         <v>1</v>
@@ -15253,24 +15253,24 @@
       <c r="PT10" s="1">
         <v>1</v>
       </c>
-      <c r="PU10" s="1">
-        <v>1</v>
-      </c>
-      <c r="PV10" s="17">
-        <v>61</v>
+      <c r="PU10" s="17">
+        <v>63</v>
+      </c>
+      <c r="PV10" s="16">
+        <v>32</v>
       </c>
       <c r="PW10" s="16">
+        <v>31</v>
+      </c>
+      <c r="PX10" s="16">
         <v>32</v>
       </c>
-      <c r="PX10" s="16">
-        <v>31</v>
-      </c>
-      <c r="PY10" s="16">
-        <v>32</v>
-      </c>
-      <c r="PZ10" s="17">
+      <c r="PY10" s="17">
         <v>60</v>
       </c>
+      <c r="PZ10" s="1">
+        <v>1</v>
+      </c>
       <c r="QA10" s="1">
         <v>1</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>1</v>
       </c>
       <c r="QJ10" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QK10" s="16">
         <v>31</v>
@@ -15425,10 +15425,10 @@
         <v>1</v>
       </c>
       <c r="RZ10" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA10" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:495" x14ac:dyDescent="0.25">
@@ -16078,205 +16078,205 @@
         <v>1</v>
       </c>
       <c r="HH11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HI11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HJ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HK11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HL11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HM11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HN11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HO11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HP11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HQ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HR11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HS11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HT11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HU11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HV11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HW11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HX11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HY11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="HZ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IA11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IB11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IC11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="ID11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IE11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IF11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IG11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IH11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="II11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IJ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IK11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IL11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IM11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IN11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IO11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IP11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IQ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IR11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IS11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IT11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IU11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IV11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IW11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IX11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IY11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="IZ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JA11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JB11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JC11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JD11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JE11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JF11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JG11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JH11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JI11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JJ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JK11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JL11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JM11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JN11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JO11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JP11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JQ11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JR11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JS11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JT11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JU11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JV11" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JW11" s="1">
         <v>1</v>
@@ -16698,14 +16698,14 @@
       <c r="PF11" s="14">
         <v>39</v>
       </c>
-      <c r="PG11" s="1">
-        <v>1</v>
-      </c>
-      <c r="PH11" s="1">
-        <v>1</v>
-      </c>
-      <c r="PI11" s="1">
-        <v>1</v>
+      <c r="PG11" s="14">
+        <v>34</v>
+      </c>
+      <c r="PH11" s="14">
+        <v>40</v>
+      </c>
+      <c r="PI11" s="14">
+        <v>35</v>
       </c>
       <c r="PJ11" s="1">
         <v>1</v>
@@ -16740,24 +16740,24 @@
       <c r="PT11" s="1">
         <v>1</v>
       </c>
-      <c r="PU11" s="1">
-        <v>1</v>
-      </c>
-      <c r="PV11" s="17">
-        <v>61</v>
+      <c r="PU11" s="17">
+        <v>63</v>
+      </c>
+      <c r="PV11" s="16">
+        <v>33</v>
       </c>
       <c r="PW11" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="PX11" s="16">
-        <v>32</v>
-      </c>
-      <c r="PY11" s="16">
         <v>31</v>
       </c>
-      <c r="PZ11" s="17">
+      <c r="PY11" s="17">
         <v>60</v>
       </c>
+      <c r="PZ11" s="1">
+        <v>1</v>
+      </c>
       <c r="QA11" s="1">
         <v>1</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="QJ11" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QK11" s="16">
         <v>32</v>
@@ -16912,10 +16912,10 @@
         <v>1</v>
       </c>
       <c r="RZ11" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA11" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:495" x14ac:dyDescent="0.25">
@@ -17339,14 +17339,14 @@
       <c r="EJ12" s="1">
         <v>1</v>
       </c>
-      <c r="EK12" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL12" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM12" s="1">
-        <v>1</v>
+      <c r="EK12" s="4">
+        <v>21</v>
+      </c>
+      <c r="EL12" s="4">
+        <v>21</v>
+      </c>
+      <c r="EM12" s="4">
+        <v>21</v>
       </c>
       <c r="EN12" s="4">
         <v>21</v>
@@ -18185,17 +18185,17 @@
       <c r="PF12" s="14">
         <v>34</v>
       </c>
-      <c r="PG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="PH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="PI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="PJ12" s="1">
-        <v>1</v>
+      <c r="PG12" s="14">
+        <v>34</v>
+      </c>
+      <c r="PH12" s="14">
+        <v>34</v>
+      </c>
+      <c r="PI12" s="14">
+        <v>40</v>
+      </c>
+      <c r="PJ12" s="14">
+        <v>35</v>
       </c>
       <c r="PK12" s="1">
         <v>1</v>
@@ -18230,8 +18230,8 @@
       <c r="PU12" s="1">
         <v>1</v>
       </c>
-      <c r="PV12" s="1">
-        <v>1</v>
+      <c r="PV12" s="17">
+        <v>59</v>
       </c>
       <c r="PW12" s="17">
         <v>59</v>
@@ -18239,8 +18239,8 @@
       <c r="PX12" s="17">
         <v>59</v>
       </c>
-      <c r="PY12" s="17">
-        <v>59</v>
+      <c r="PY12" s="1">
+        <v>1</v>
       </c>
       <c r="PZ12" s="1">
         <v>1</v>
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="QJ12" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="QK12" s="16">
         <v>33</v>
@@ -18399,10 +18399,10 @@
         <v>1</v>
       </c>
       <c r="RZ12" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA12" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:495" x14ac:dyDescent="0.25">
@@ -18826,14 +18826,14 @@
       <c r="EJ13" s="1">
         <v>1</v>
       </c>
-      <c r="EK13" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL13" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM13" s="1">
-        <v>1</v>
+      <c r="EK13" s="4">
+        <v>20</v>
+      </c>
+      <c r="EL13" s="4">
+        <v>20</v>
+      </c>
+      <c r="EM13" s="4">
+        <v>20</v>
       </c>
       <c r="EN13" s="4">
         <v>20</v>
@@ -18971,25 +18971,25 @@
         <v>20</v>
       </c>
       <c r="GG13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GH13" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="GI13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GJ13" s="4">
         <v>20</v>
       </c>
       <c r="GK13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GL13" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="GM13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GN13" s="4">
         <v>20</v>
@@ -19004,13 +19004,13 @@
         <v>20</v>
       </c>
       <c r="GR13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GS13" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="GT13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="GU13" s="4">
         <v>20</v>
@@ -19259,76 +19259,76 @@
         <v>1</v>
       </c>
       <c r="JY13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="JZ13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KA13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KB13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KC13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KD13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KE13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KF13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KG13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KH13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KI13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KJ13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KK13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KL13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KM13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KN13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KO13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KP13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KQ13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KR13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KS13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KT13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KU13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KV13" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="KW13" s="1">
         <v>1</v>
@@ -19370,40 +19370,40 @@
         <v>1</v>
       </c>
       <c r="LJ13" s="1">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="LK13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LL13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LM13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LN13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LO13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LP13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LQ13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LR13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LS13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LT13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LU13" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="LV13" s="1">
         <v>1</v>
@@ -19660,8 +19660,8 @@
       <c r="PB13" s="1">
         <v>1</v>
       </c>
-      <c r="PC13" s="1">
-        <v>1</v>
+      <c r="PC13" s="14">
+        <v>38</v>
       </c>
       <c r="PD13" s="14">
         <v>39</v>
@@ -19672,20 +19672,20 @@
       <c r="PF13" s="14">
         <v>34</v>
       </c>
-      <c r="PG13" s="1">
-        <v>1</v>
-      </c>
-      <c r="PH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="PI13" s="1">
-        <v>1</v>
-      </c>
-      <c r="PJ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="PK13" s="1">
-        <v>1</v>
+      <c r="PG13" s="14">
+        <v>34</v>
+      </c>
+      <c r="PH13" s="14">
+        <v>34</v>
+      </c>
+      <c r="PI13" s="14">
+        <v>34</v>
+      </c>
+      <c r="PJ13" s="14">
+        <v>40</v>
+      </c>
+      <c r="PK13" s="14">
+        <v>35</v>
       </c>
       <c r="PL13" s="1">
         <v>1</v>
@@ -19886,10 +19886,10 @@
         <v>1</v>
       </c>
       <c r="RZ13" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="SA13" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:495" x14ac:dyDescent="0.25">
@@ -20854,46 +20854,46 @@
         <v>1</v>
       </c>
       <c r="LI14" s="1">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="LJ14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LK14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LL14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LM14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LN14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LO14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LP14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LQ14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LR14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LS14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LT14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LU14" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LV14" s="1">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="LW14" s="1">
         <v>1</v>
@@ -21103,280 +21103,280 @@
         <v>1</v>
       </c>
       <c r="ON14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OO14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OP14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OQ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OR14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OS14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="OT14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OU14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="OV14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OW14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="OX14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="OY14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="OZ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PA14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PB14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PC14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PD14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PE14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PF14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PG14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PH14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PI14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PJ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PK14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PL14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PM14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PN14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PO14" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="PP14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PQ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PR14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PS14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PT14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PU14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PV14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PW14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PX14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PY14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="PZ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QA14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QB14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QC14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QD14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QE14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QF14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QG14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QH14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QI14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QJ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QK14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QL14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QM14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QN14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QO14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QP14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QQ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QR14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QS14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QT14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QU14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QV14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QW14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QX14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QY14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="QZ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RA14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RB14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RC14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RD14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RE14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RF14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RG14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RH14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RI14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RJ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RK14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RL14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RM14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RN14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RO14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RP14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RQ14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RR14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RS14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RT14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RU14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RV14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RW14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RX14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RY14" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="RZ14" s="2">
-        <v>17</v>
-      </c>
-      <c r="SA14" s="1">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="SA14" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:495" x14ac:dyDescent="0.25">
@@ -22338,52 +22338,52 @@
         <v>1</v>
       </c>
       <c r="LH15" s="1">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="LI15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LJ15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LK15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LL15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LM15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LN15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LO15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LP15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LQ15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LR15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LS15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LT15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LU15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LV15" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="LW15" s="1">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="LX15" s="1">
         <v>1</v>
@@ -22470,7 +22470,7 @@
         <v>33</v>
       </c>
       <c r="MZ15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="NA15" s="14">
         <v>39</v>
@@ -22506,28 +22506,28 @@
         <v>40</v>
       </c>
       <c r="NL15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="NM15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="NN15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="NO15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="NP15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="NQ15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="NR15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="NS15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="NT15" s="14">
         <v>39</v>
@@ -22563,307 +22563,307 @@
         <v>40</v>
       </c>
       <c r="OE15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="OF15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="OG15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="OH15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="OI15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="OJ15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="OK15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="OL15" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="OM15" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="ON15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OO15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OP15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OQ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OR15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OS15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="OT15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OU15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="OV15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OW15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="OX15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="OY15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="OZ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PA15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PB15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PC15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PD15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PE15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PF15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PG15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PH15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PI15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PJ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PK15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PL15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PM15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PN15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PO15" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="PP15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PQ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PR15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PS15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PT15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PU15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PV15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PW15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PX15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PY15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="PZ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QA15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QB15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QC15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QD15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QE15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QF15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QG15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QH15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QI15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QJ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QK15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QL15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QM15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QN15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QO15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QP15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QQ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QR15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QS15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QT15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QU15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QV15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QW15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QX15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QY15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="QZ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RA15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RB15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RC15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RD15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RE15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RF15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RG15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RH15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RI15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RJ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RK15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RL15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RM15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RN15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RO15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RP15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RQ15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RR15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RS15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RT15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RU15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RV15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RW15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RX15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RY15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="RZ15" s="2">
-        <v>15</v>
-      </c>
-      <c r="SA15" s="1">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="SA15" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC12724-36EA-4658-A569-1A40FB82D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D4BD5-0B4B-474F-AD70-0C70D3A4912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:SA15"/>
+  <dimension ref="A1:SN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EQ7" sqref="A1:SA15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="AN1" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="AO1" s="7">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="BN1" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="BO1" s="7">
         <v>1</v>
@@ -1991,64 +1991,103 @@
         <v>65</v>
       </c>
       <c r="RI1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RJ1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RK1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RL1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RM1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RN1" s="1">
-        <v>65</v>
-      </c>
-      <c r="RO1" s="1">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="RO1" s="4">
+        <v>72</v>
       </c>
       <c r="RP1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RQ1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RR1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RS1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RT1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RU1" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="RV1" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="RW1" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="RX1" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="RY1" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="RZ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE1" s="4">
+        <v>72</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM1" s="1">
         <v>100</v>
       </c>
-      <c r="SA1" s="1">
-        <v>31</v>
+      <c r="SN1" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3492,14 +3531,14 @@
       <c r="RM2" s="1">
         <v>1</v>
       </c>
-      <c r="RN2" s="1">
-        <v>1</v>
+      <c r="RN2" s="4">
+        <v>74</v>
       </c>
       <c r="RO2" s="1">
         <v>1</v>
       </c>
-      <c r="RP2" s="1">
-        <v>1</v>
+      <c r="RP2" s="4">
+        <v>75</v>
       </c>
       <c r="RQ2" s="1">
         <v>1</v>
@@ -3529,13 +3568,52 @@
         <v>1</v>
       </c>
       <c r="RZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD2" s="4">
+        <v>74</v>
+      </c>
+      <c r="SE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF2" s="4">
+        <v>75</v>
+      </c>
+      <c r="SG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM2" s="1">
         <v>100</v>
       </c>
-      <c r="SA2" s="1">
-        <v>31</v>
+      <c r="SN2" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4976,8 +5054,8 @@
       <c r="RL3" s="1">
         <v>1</v>
       </c>
-      <c r="RM3" s="1">
-        <v>1</v>
+      <c r="RM3" s="4">
+        <v>76</v>
       </c>
       <c r="RN3" s="1">
         <v>1</v>
@@ -4988,8 +5066,8 @@
       <c r="RP3" s="1">
         <v>1</v>
       </c>
-      <c r="RQ3" s="1">
-        <v>1</v>
+      <c r="RQ3" s="4">
+        <v>72</v>
       </c>
       <c r="RR3" s="1">
         <v>1</v>
@@ -5016,13 +5094,52 @@
         <v>1</v>
       </c>
       <c r="RZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC3" s="4">
+        <v>74</v>
+      </c>
+      <c r="SD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG3" s="4">
+        <v>75</v>
+      </c>
+      <c r="SH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM3" s="1">
         <v>100</v>
       </c>
-      <c r="SA3" s="1">
-        <v>31</v>
+      <c r="SN3" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -6460,8 +6577,8 @@
       <c r="RK4" s="1">
         <v>1</v>
       </c>
-      <c r="RL4" s="1">
-        <v>1</v>
+      <c r="RL4" s="4">
+        <v>74</v>
       </c>
       <c r="RM4" s="1">
         <v>1</v>
@@ -6478,8 +6595,8 @@
       <c r="RQ4" s="1">
         <v>1</v>
       </c>
-      <c r="RR4" s="1">
-        <v>1</v>
+      <c r="RR4" s="4">
+        <v>75</v>
       </c>
       <c r="RS4" s="1">
         <v>1</v>
@@ -6503,13 +6620,52 @@
         <v>1</v>
       </c>
       <c r="RZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB4" s="4">
+        <v>74</v>
+      </c>
+      <c r="SC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH4" s="4">
+        <v>75</v>
+      </c>
+      <c r="SI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM4" s="1">
         <v>100</v>
       </c>
-      <c r="SA4" s="1">
-        <v>31</v>
+      <c r="SN4" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -7938,14 +8094,14 @@
       <c r="RH5" s="16">
         <v>33</v>
       </c>
-      <c r="RI5" s="1">
-        <v>1</v>
-      </c>
-      <c r="RJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="RK5" s="1">
-        <v>1</v>
+      <c r="RI5" s="4">
+        <v>1</v>
+      </c>
+      <c r="RJ5" s="4">
+        <v>1</v>
+      </c>
+      <c r="RK5" s="4">
+        <v>72</v>
       </c>
       <c r="RL5" s="1">
         <v>1</v>
@@ -7968,8 +8124,8 @@
       <c r="RR5" s="1">
         <v>1</v>
       </c>
-      <c r="RS5" s="1">
-        <v>1</v>
+      <c r="RS5" s="4">
+        <v>76</v>
       </c>
       <c r="RT5" s="1">
         <v>1</v>
@@ -7980,8 +8136,8 @@
       <c r="RV5" s="1">
         <v>1</v>
       </c>
-      <c r="RW5" s="1">
-        <v>1</v>
+      <c r="RW5" s="4">
+        <v>76</v>
       </c>
       <c r="RX5" s="1">
         <v>1</v>
@@ -7990,13 +8146,52 @@
         <v>1</v>
       </c>
       <c r="RZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA5" s="4">
+        <v>72</v>
+      </c>
+      <c r="SB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI5" s="4">
+        <v>76</v>
+      </c>
+      <c r="SJ5" s="4">
+        <v>73</v>
+      </c>
+      <c r="SK5" s="4">
+        <v>73</v>
+      </c>
+      <c r="SL5" s="4">
+        <v>76</v>
+      </c>
+      <c r="SM5" s="1">
         <v>100</v>
       </c>
-      <c r="SA5" s="1">
-        <v>31</v>
+      <c r="SN5" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8159,10 +8354,10 @@
       <c r="BB6" s="1">
         <v>1</v>
       </c>
-      <c r="BC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="1">
+      <c r="BC6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="7">
         <v>1</v>
       </c>
       <c r="BE6" s="1">
@@ -8427,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="EN6" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EO6" s="6">
         <v>33</v>
@@ -8441,8 +8636,8 @@
       <c r="ER6" s="6">
         <v>33</v>
       </c>
-      <c r="ES6" s="6">
-        <v>31</v>
+      <c r="ES6" s="1">
+        <v>33</v>
       </c>
       <c r="ET6" s="1">
         <v>1</v>
@@ -9458,32 +9653,71 @@
       <c r="RS6" s="1">
         <v>1</v>
       </c>
-      <c r="RT6" s="1">
-        <v>1</v>
+      <c r="RT6" s="4">
+        <v>75</v>
       </c>
       <c r="RU6" s="1">
         <v>1</v>
       </c>
-      <c r="RV6" s="1">
-        <v>1</v>
+      <c r="RV6" s="4">
+        <v>74</v>
       </c>
       <c r="RW6" s="1">
         <v>1</v>
       </c>
-      <c r="RX6" s="1">
-        <v>1</v>
+      <c r="RX6" s="4">
+        <v>75</v>
       </c>
       <c r="RY6" s="1">
         <v>1</v>
       </c>
-      <c r="RZ6" s="1">
+      <c r="RZ6" s="4">
+        <v>74</v>
+      </c>
+      <c r="SA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM6" s="1">
         <v>100</v>
       </c>
-      <c r="SA6" s="1">
-        <v>31</v>
+      <c r="SN6" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -9646,10 +9880,10 @@
       <c r="BB7" s="1">
         <v>1</v>
       </c>
-      <c r="BC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="1">
+      <c r="BC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="7">
         <v>1</v>
       </c>
       <c r="BE7" s="1">
@@ -9914,22 +10148,22 @@
         <v>1</v>
       </c>
       <c r="EN7" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="EO7" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="EP7" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="EQ7" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="ER7" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="ES7" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="ET7" s="1">
         <v>1</v>
@@ -10009,11 +10243,11 @@
       <c r="FS7" s="1">
         <v>1</v>
       </c>
-      <c r="FT7" s="1">
-        <v>1</v>
-      </c>
-      <c r="FU7" s="1">
-        <v>1</v>
+      <c r="FT7" s="12">
+        <v>102</v>
+      </c>
+      <c r="FU7" s="12">
+        <v>102</v>
       </c>
       <c r="FV7" s="1">
         <v>1</v>
@@ -10948,8 +11182,8 @@
       <c r="RT7" s="1">
         <v>1</v>
       </c>
-      <c r="RU7" s="1">
-        <v>1</v>
+      <c r="RU7" s="4">
+        <v>76</v>
       </c>
       <c r="RV7" s="1">
         <v>1</v>
@@ -10960,17 +11194,56 @@
       <c r="RX7" s="1">
         <v>1</v>
       </c>
-      <c r="RY7" s="1">
-        <v>1</v>
+      <c r="RY7" s="4">
+        <v>76</v>
       </c>
       <c r="RZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM7" s="1">
         <v>100</v>
       </c>
-      <c r="SA7" s="1">
-        <v>31</v>
+      <c r="SN7" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -11133,10 +11406,10 @@
       <c r="BB8" s="1">
         <v>1</v>
       </c>
-      <c r="BC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="1">
+      <c r="BC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="7">
         <v>1</v>
       </c>
       <c r="BE8" s="1">
@@ -11584,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="GW8" s="1">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="GX8" s="1">
         <v>1</v>
@@ -11599,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="HB8" s="1">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="HC8" s="1">
         <v>1</v>
@@ -12397,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="RH8" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="RI8" s="1">
         <v>1</v>
@@ -12451,13 +12724,52 @@
         <v>1</v>
       </c>
       <c r="RZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM8" s="1">
         <v>100</v>
       </c>
-      <c r="SA8" s="1">
-        <v>31</v>
+      <c r="SN8" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -12620,10 +12932,10 @@
       <c r="BB9" s="1">
         <v>1</v>
       </c>
-      <c r="BC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="1">
+      <c r="BC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="7">
         <v>1</v>
       </c>
       <c r="BE9" s="1">
@@ -12965,11 +13277,11 @@
       <c r="FM9" s="1">
         <v>1</v>
       </c>
-      <c r="FN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="FO9" s="1">
-        <v>1</v>
+      <c r="FN9" s="12">
+        <v>102</v>
+      </c>
+      <c r="FO9" s="12">
+        <v>102</v>
       </c>
       <c r="FP9" s="1">
         <v>1</v>
@@ -13884,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="RH9" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="RI9" s="1">
         <v>1</v>
@@ -13905,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="RO9" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="RP9" s="1">
         <v>1</v>
@@ -13938,13 +14250,52 @@
         <v>1</v>
       </c>
       <c r="RZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE9" s="4">
+        <v>72</v>
+      </c>
+      <c r="SF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM9" s="1">
         <v>100</v>
       </c>
-      <c r="SA9" s="1">
-        <v>31</v>
+      <c r="SN9" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -13981,28 +14332,28 @@
       <c r="L10" s="7">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
         <v>1</v>
       </c>
       <c r="U10" s="1">
@@ -14107,10 +14458,10 @@
       <c r="BB10" s="1">
         <v>1</v>
       </c>
-      <c r="BC10" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="1">
+      <c r="BC10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="7">
         <v>1</v>
       </c>
       <c r="BE10" s="1">
@@ -14531,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="GN10" s="1">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="GO10" s="1">
         <v>1</v>
@@ -14540,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="GQ10" s="1">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="GR10" s="1">
         <v>1</v>
@@ -15371,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="RH10" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="RI10" s="1">
         <v>1</v>
@@ -15388,14 +15739,14 @@
       <c r="RM10" s="1">
         <v>1</v>
       </c>
-      <c r="RN10" s="1">
-        <v>1</v>
+      <c r="RN10" s="4">
+        <v>74</v>
       </c>
       <c r="RO10" s="1">
         <v>1</v>
       </c>
-      <c r="RP10" s="1">
-        <v>1</v>
+      <c r="RP10" s="4">
+        <v>75</v>
       </c>
       <c r="RQ10" s="1">
         <v>1</v>
@@ -15425,13 +15776,52 @@
         <v>1</v>
       </c>
       <c r="RZ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD10" s="4">
+        <v>74</v>
+      </c>
+      <c r="SE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF10" s="4">
+        <v>75</v>
+      </c>
+      <c r="SG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM10" s="1">
         <v>100</v>
       </c>
-      <c r="SA10" s="1">
-        <v>31</v>
+      <c r="SN10" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -15594,10 +15984,10 @@
       <c r="BB11" s="1">
         <v>1</v>
       </c>
-      <c r="BC11" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="1">
+      <c r="BC11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="7">
         <v>1</v>
       </c>
       <c r="BE11" s="1">
@@ -15852,11 +16242,11 @@
       <c r="EJ11" s="1">
         <v>1</v>
       </c>
-      <c r="EK11" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="1">
-        <v>1</v>
+      <c r="EK11" s="12">
+        <v>102</v>
+      </c>
+      <c r="EL11" s="12">
+        <v>102</v>
       </c>
       <c r="EM11" s="1">
         <v>1</v>
@@ -15870,11 +16260,11 @@
       <c r="EP11" s="1">
         <v>1</v>
       </c>
-      <c r="EQ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="ER11" s="1">
-        <v>1</v>
+      <c r="EQ11" s="12">
+        <v>102</v>
+      </c>
+      <c r="ER11" s="12">
+        <v>102</v>
       </c>
       <c r="ES11" s="1">
         <v>1</v>
@@ -15921,11 +16311,11 @@
       <c r="FG11" s="1">
         <v>1</v>
       </c>
-      <c r="FH11" s="1">
-        <v>1</v>
-      </c>
-      <c r="FI11" s="1">
-        <v>1</v>
+      <c r="FH11" s="12">
+        <v>102</v>
+      </c>
+      <c r="FI11" s="12">
+        <v>102</v>
       </c>
       <c r="FJ11" s="1">
         <v>1</v>
@@ -16018,16 +16408,16 @@
         <v>1</v>
       </c>
       <c r="GN11" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="GO11" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="GP11" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="GQ11" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="GR11" s="1">
         <v>1</v>
@@ -16872,8 +17262,8 @@
       <c r="RL11" s="1">
         <v>1</v>
       </c>
-      <c r="RM11" s="1">
-        <v>1</v>
+      <c r="RM11" s="4">
+        <v>76</v>
       </c>
       <c r="RN11" s="1">
         <v>1</v>
@@ -16884,8 +17274,8 @@
       <c r="RP11" s="1">
         <v>1</v>
       </c>
-      <c r="RQ11" s="1">
-        <v>1</v>
+      <c r="RQ11" s="4">
+        <v>72</v>
       </c>
       <c r="RR11" s="1">
         <v>1</v>
@@ -16912,13 +17302,52 @@
         <v>1</v>
       </c>
       <c r="RZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC11" s="4">
+        <v>74</v>
+      </c>
+      <c r="SD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG11" s="4">
+        <v>75</v>
+      </c>
+      <c r="SH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM11" s="1">
         <v>100</v>
       </c>
-      <c r="SA11" s="1">
-        <v>31</v>
+      <c r="SN11" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -17081,10 +17510,10 @@
       <c r="BB12" s="1">
         <v>1</v>
       </c>
-      <c r="BC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="1">
+      <c r="BC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="7">
         <v>1</v>
       </c>
       <c r="BE12" s="1">
@@ -17505,16 +17934,16 @@
         <v>1</v>
       </c>
       <c r="GN12" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="GO12" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="GP12" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="GQ12" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="GR12" s="1">
         <v>1</v>
@@ -17766,10 +18195,10 @@
         <v>62</v>
       </c>
       <c r="JW12" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="JX12" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="JY12" s="1">
         <v>1</v>
@@ -18356,8 +18785,8 @@
       <c r="RK12" s="1">
         <v>1</v>
       </c>
-      <c r="RL12" s="1">
-        <v>1</v>
+      <c r="RL12" s="4">
+        <v>74</v>
       </c>
       <c r="RM12" s="1">
         <v>1</v>
@@ -18374,8 +18803,8 @@
       <c r="RQ12" s="1">
         <v>1</v>
       </c>
-      <c r="RR12" s="1">
-        <v>1</v>
+      <c r="RR12" s="4">
+        <v>75</v>
       </c>
       <c r="RS12" s="1">
         <v>1</v>
@@ -18399,13 +18828,52 @@
         <v>1</v>
       </c>
       <c r="RZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB12" s="4">
+        <v>74</v>
+      </c>
+      <c r="SC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH12" s="4">
+        <v>75</v>
+      </c>
+      <c r="SI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM12" s="1">
         <v>100</v>
       </c>
-      <c r="SA12" s="1">
-        <v>31</v>
+      <c r="SN12" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -18568,10 +19036,10 @@
       <c r="BB13" s="1">
         <v>1</v>
       </c>
-      <c r="BC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="1">
+      <c r="BC13" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="7">
         <v>1</v>
       </c>
       <c r="BE13" s="1">
@@ -18992,16 +19460,16 @@
         <v>50</v>
       </c>
       <c r="GN13" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="GO13" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="GP13" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="GQ13" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="GR13" s="1">
         <v>50</v>
@@ -19253,10 +19721,10 @@
         <v>62</v>
       </c>
       <c r="JW13" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="JX13" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="JY13" s="13">
         <v>61</v>
@@ -19834,14 +20302,14 @@
       <c r="RH13" s="16">
         <v>31</v>
       </c>
-      <c r="RI13" s="1">
-        <v>1</v>
-      </c>
-      <c r="RJ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="RK13" s="1">
-        <v>1</v>
+      <c r="RI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="RJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="RK13" s="4">
+        <v>72</v>
       </c>
       <c r="RL13" s="1">
         <v>1</v>
@@ -19864,8 +20332,8 @@
       <c r="RR13" s="1">
         <v>1</v>
       </c>
-      <c r="RS13" s="1">
-        <v>1</v>
+      <c r="RS13" s="4">
+        <v>76</v>
       </c>
       <c r="RT13" s="1">
         <v>1</v>
@@ -19876,8 +20344,8 @@
       <c r="RV13" s="1">
         <v>1</v>
       </c>
-      <c r="RW13" s="1">
-        <v>1</v>
+      <c r="RW13" s="4">
+        <v>76</v>
       </c>
       <c r="RX13" s="1">
         <v>1</v>
@@ -19886,13 +20354,52 @@
         <v>1</v>
       </c>
       <c r="RZ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA13" s="4">
+        <v>72</v>
+      </c>
+      <c r="SB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI13" s="4">
+        <v>76</v>
+      </c>
+      <c r="SJ13" s="4">
+        <v>73</v>
+      </c>
+      <c r="SK13" s="4">
+        <v>73</v>
+      </c>
+      <c r="SL13" s="4">
+        <v>76</v>
+      </c>
+      <c r="SM13" s="1">
         <v>100</v>
       </c>
-      <c r="SA13" s="1">
-        <v>31</v>
+      <c r="SN13" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -20739,11 +21246,11 @@
       <c r="JV14" s="13">
         <v>62</v>
       </c>
-      <c r="JW14" s="1">
-        <v>1</v>
-      </c>
-      <c r="JX14" s="1">
-        <v>1</v>
+      <c r="JW14" s="13">
+        <v>62</v>
+      </c>
+      <c r="JX14" s="13">
+        <v>62</v>
       </c>
       <c r="JY14" s="13">
         <v>62</v>
@@ -21321,65 +21828,104 @@
       <c r="RH14" s="2">
         <v>21</v>
       </c>
-      <c r="RI14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RJ14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RK14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RL14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RM14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RN14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RO14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RP14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RQ14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RR14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RS14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RT14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RU14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RV14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RW14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RX14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RY14" s="2">
-        <v>21</v>
-      </c>
-      <c r="RZ14" s="2">
-        <v>21</v>
-      </c>
-      <c r="SA14" s="2">
-        <v>21</v>
+      <c r="RI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RT14" s="4">
+        <v>75</v>
+      </c>
+      <c r="RU14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RV14" s="4">
+        <v>74</v>
+      </c>
+      <c r="RW14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RX14" s="4">
+        <v>75</v>
+      </c>
+      <c r="RY14" s="1">
+        <v>1</v>
+      </c>
+      <c r="RZ14" s="4">
+        <v>74</v>
+      </c>
+      <c r="SA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM14" s="1">
+        <v>100</v>
+      </c>
+      <c r="SN14" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:495" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:508" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -22226,11 +22772,11 @@
       <c r="JV15" s="13">
         <v>62</v>
       </c>
-      <c r="JW15" s="1">
-        <v>1</v>
-      </c>
-      <c r="JX15" s="1">
-        <v>1</v>
+      <c r="JW15" s="13">
+        <v>62</v>
+      </c>
+      <c r="JX15" s="13">
+        <v>62</v>
       </c>
       <c r="JY15" s="13">
         <v>62</v>
@@ -22808,62 +23354,101 @@
       <c r="RH15" s="2">
         <v>20</v>
       </c>
-      <c r="RI15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RJ15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RK15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RL15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RM15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RN15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RO15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RP15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RQ15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RR15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RS15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RT15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RU15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RV15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RW15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RX15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RY15" s="2">
-        <v>20</v>
-      </c>
-      <c r="RZ15" s="2">
-        <v>20</v>
-      </c>
-      <c r="SA15" s="2">
-        <v>20</v>
+      <c r="RI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RM15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RU15" s="4">
+        <v>76</v>
+      </c>
+      <c r="RV15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RW15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RX15" s="1">
+        <v>1</v>
+      </c>
+      <c r="RY15" s="4">
+        <v>76</v>
+      </c>
+      <c r="RZ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="SM15" s="1">
+        <v>23</v>
+      </c>
+      <c r="SN15" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Sổ làm việc1.xlsx
+++ b/Sổ làm việc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING PROJECTS\FirstEverGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D4BD5-0B4B-474F-AD70-0C70D3A4912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C32D9E-6779-446A-B6C2-12FF43339E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:SN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="GX1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HR5" sqref="A1:SN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E1" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F1" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G1" s="7">
         <v>1</v>
@@ -587,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="I1" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="J1" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="K1" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L1" s="7">
         <v>1</v>
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="N1" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="O1" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="P1" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="7">
         <v>1</v>
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="S1" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="T1" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="U1" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="V1" s="7">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="GT1" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="GU1" s="4">
         <v>20</v>
@@ -2081,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="SM1" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN1" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:508" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -2107,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -2122,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="M2" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="R2" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="S2" s="7">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="V2" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="W2" s="7">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="GT2" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="GU2" s="4">
         <v>20</v>
@@ -3607,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="SM2" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN2" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:508" x14ac:dyDescent="0.25">
@@ -3624,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -3639,13 +3639,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="J3" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="K3" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
@@ -3654,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="P3" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
@@ -3669,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="S3" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="T3" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="U3" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="V3" s="7">
         <v>1</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="GT3" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="GU3" s="4">
         <v>22</v>
@@ -5133,10 +5133,10 @@
         <v>1</v>
       </c>
       <c r="SM3" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN3" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:508" x14ac:dyDescent="0.25">
@@ -6659,10 +6659,10 @@
         <v>1</v>
       </c>
       <c r="SM4" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN4" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:508" x14ac:dyDescent="0.25">
@@ -8185,10 +8185,10 @@
         <v>76</v>
       </c>
       <c r="SM5" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN5" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:508" x14ac:dyDescent="0.25">
@@ -9711,10 +9711,10 @@
         <v>1</v>
       </c>
       <c r="SM6" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN6" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:508" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="GJ7" s="1">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="GK7" s="1">
         <v>1</v>
@@ -11237,10 +11237,10 @@
         <v>1</v>
       </c>
       <c r="SM7" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN7" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:508" x14ac:dyDescent="0.25">
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="FY8" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="FZ8" s="4">
         <v>20</v>
@@ -11815,13 +11815,13 @@
         <v>1</v>
       </c>
       <c r="GI8" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="GJ8" s="4">
         <v>20</v>
       </c>
       <c r="GK8" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GL8" s="1">
         <v>1</v>
@@ -12295,43 +12295,43 @@
         <v>33</v>
       </c>
       <c r="MM8" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="MN8" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="MO8" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="MP8" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="MQ8" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="MR8" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="MS8" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="MT8" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="MU8" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="MV8" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="MW8" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="MX8" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="MY8" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="MZ8" s="1">
         <v>1</v>
@@ -12763,10 +12763,10 @@
         <v>1</v>
       </c>
       <c r="SM8" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN8" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13179,7 +13179,7 @@
         <v>21</v>
       </c>
       <c r="EG9" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="EH9" s="1">
         <v>1</v>
@@ -13311,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="FY9" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="FZ9" s="4">
         <v>20</v>
@@ -13332,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="GF9" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="GG9" s="1">
         <v>1</v>
@@ -13341,13 +13341,13 @@
         <v>1</v>
       </c>
       <c r="GI9" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="GJ9" s="4">
         <v>20</v>
       </c>
       <c r="GK9" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GL9" s="1">
         <v>1</v>
@@ -13821,43 +13821,43 @@
         <v>33</v>
       </c>
       <c r="MM9" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN9" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MO9" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MP9" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MQ9" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MR9" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MS9" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MT9" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MU9" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MV9" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MW9" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MX9" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MY9" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="MZ9" s="1">
         <v>1</v>
@@ -14289,10 +14289,10 @@
         <v>1</v>
       </c>
       <c r="SM9" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN9" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:508" x14ac:dyDescent="0.25">
@@ -14704,8 +14704,8 @@
       <c r="EF10" s="4">
         <v>20</v>
       </c>
-      <c r="EG10" s="1">
-        <v>1</v>
+      <c r="EG10" s="7">
+        <v>106</v>
       </c>
       <c r="EH10" s="1">
         <v>1</v>
@@ -14837,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="FY10" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="FZ10" s="4">
         <v>20</v>
@@ -14861,19 +14861,19 @@
         <v>21</v>
       </c>
       <c r="GG10" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GH10" s="1">
         <v>1</v>
       </c>
       <c r="GI10" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="GJ10" s="4">
         <v>20</v>
       </c>
       <c r="GK10" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GL10" s="1">
         <v>1</v>
@@ -15347,43 +15347,43 @@
         <v>1</v>
       </c>
       <c r="MM10" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN10" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MO10" s="2">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="MP10" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="MQ10" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MR10" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MS10" s="2">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="MT10" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="MU10" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MV10" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MW10" s="2">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="MX10" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="MY10" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="MZ10" s="1">
         <v>1</v>
@@ -15815,10 +15815,10 @@
         <v>1</v>
       </c>
       <c r="SM10" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN10" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:508" x14ac:dyDescent="0.25">
@@ -15943,7 +15943,7 @@
         <v>21</v>
       </c>
       <c r="AO11" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AP11" s="7">
         <v>1</v>
@@ -16213,7 +16213,7 @@
         <v>21</v>
       </c>
       <c r="EA11" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="EB11" s="1">
         <v>1</v>
@@ -16230,8 +16230,8 @@
       <c r="EF11" s="4">
         <v>20</v>
       </c>
-      <c r="EG11" s="1">
-        <v>1</v>
+      <c r="EG11" s="7">
+        <v>106</v>
       </c>
       <c r="EH11" s="1">
         <v>1</v>
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="FY11" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="FZ11" s="4">
         <v>20</v>
@@ -16387,19 +16387,19 @@
         <v>20</v>
       </c>
       <c r="GG11" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GH11" s="1">
         <v>1</v>
       </c>
       <c r="GI11" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="GJ11" s="4">
         <v>20</v>
       </c>
       <c r="GK11" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GL11" s="1">
         <v>1</v>
@@ -16768,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="LD11" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="LE11" s="1">
         <v>1</v>
@@ -16873,43 +16873,43 @@
         <v>1</v>
       </c>
       <c r="MM11" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN11" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MO11" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="MP11" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="MQ11" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MR11" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MS11" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="MT11" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="MU11" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MV11" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MW11" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="MX11" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="MY11" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="MZ11" s="1">
         <v>1</v>
@@ -17341,10 +17341,10 @@
         <v>1</v>
       </c>
       <c r="SM11" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN11" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:508" x14ac:dyDescent="0.25">
@@ -17469,7 +17469,7 @@
         <v>20</v>
       </c>
       <c r="AO12" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AP12" s="7">
         <v>1</v>
@@ -17738,8 +17738,8 @@
       <c r="DZ12" s="4">
         <v>20</v>
       </c>
-      <c r="EA12" s="1">
-        <v>1</v>
+      <c r="EA12" s="7">
+        <v>106</v>
       </c>
       <c r="EB12" s="1">
         <v>1</v>
@@ -17756,8 +17756,8 @@
       <c r="EF12" s="4">
         <v>20</v>
       </c>
-      <c r="EG12" s="1">
-        <v>1</v>
+      <c r="EG12" s="7">
+        <v>106</v>
       </c>
       <c r="EH12" s="1">
         <v>1</v>
@@ -17889,7 +17889,7 @@
         <v>1</v>
       </c>
       <c r="FY12" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="FZ12" s="4">
         <v>20</v>
@@ -17913,19 +17913,19 @@
         <v>20</v>
       </c>
       <c r="GG12" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GH12" s="1">
         <v>1</v>
       </c>
       <c r="GI12" s="1">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="GJ12" s="4">
         <v>20</v>
       </c>
       <c r="GK12" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="GL12" s="1">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="LD12" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="LE12" s="1">
         <v>1</v>
@@ -18399,43 +18399,43 @@
         <v>1</v>
       </c>
       <c r="MM12" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MO12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MP12" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MQ12" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MR12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MS12" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MT12" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MU12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MV12" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MW12" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MX12" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MY12" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="MZ12" s="1">
         <v>1</v>
@@ -18867,10 +18867,10 @@
         <v>1</v>
       </c>
       <c r="SM12" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN12" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:508" x14ac:dyDescent="0.25">
@@ -18995,7 +18995,7 @@
         <v>20</v>
       </c>
       <c r="AO13" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AP13" s="7">
         <v>1</v>
@@ -19283,7 +19283,7 @@
         <v>20</v>
       </c>
       <c r="EG13" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="EH13" s="1">
         <v>1</v>
@@ -19817,13 +19817,13 @@
         <v>1</v>
       </c>
       <c r="LC13" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="LD13" s="1">
         <v>1</v>
       </c>
       <c r="LE13" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="LF13" s="1">
         <v>1</v>
@@ -19925,43 +19925,43 @@
         <v>1</v>
       </c>
       <c r="MM13" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN13" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MO13" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MP13" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MQ13" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MR13" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MS13" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MT13" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MU13" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MV13" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MW13" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MX13" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MY13" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="MZ13" s="1">
         <v>1</v>
@@ -20393,10 +20393,10 @@
         <v>76</v>
       </c>
       <c r="SM13" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN13" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:508" x14ac:dyDescent="0.25">
@@ -21340,19 +21340,19 @@
         <v>1</v>
       </c>
       <c r="LB14" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="LC14" s="1">
         <v>1</v>
       </c>
       <c r="LD14" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="LE14" s="1">
         <v>1</v>
       </c>
       <c r="LF14" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="LG14" s="1">
         <v>1</v>
@@ -21451,43 +21451,43 @@
         <v>1</v>
       </c>
       <c r="MM14" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN14" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MO14" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MP14" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MQ14" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MR14" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MS14" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MT14" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MU14" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MV14" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MW14" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MX14" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MY14" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="MZ14" s="1">
         <v>1</v>
@@ -21919,10 +21919,10 @@
         <v>1</v>
       </c>
       <c r="SM14" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="SN14" s="1">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:508" x14ac:dyDescent="0.25">
@@ -22869,13 +22869,13 @@
         <v>1</v>
       </c>
       <c r="LC15" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="LD15" s="1">
         <v>1</v>
       </c>
       <c r="LE15" s="1">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="LF15" s="1">
         <v>1</v>
@@ -22977,43 +22977,43 @@
         <v>1</v>
       </c>
       <c r="MM15" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="MN15" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MO15" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MP15" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MQ15" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MR15" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MS15" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MT15" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MU15" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MV15" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="MW15" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="MX15" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="MY15" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="MZ15" s="1">
         <v>51</v>
